--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.7983691175227</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H2">
-        <v>15.7983691175227</v>
+        <v>54.960962</v>
       </c>
       <c r="I2">
-        <v>0.9364622253110366</v>
+        <v>0.9393883922888365</v>
       </c>
       <c r="J2">
-        <v>0.9364622253110366</v>
+        <v>0.9570930138987986</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N2">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O2">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P2">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q2">
-        <v>84.8930188563173</v>
+        <v>100.6712124283849</v>
       </c>
       <c r="R2">
-        <v>84.8930188563173</v>
+        <v>906.0409118554639</v>
       </c>
       <c r="S2">
-        <v>0.7785335641833225</v>
+        <v>0.7667277735073881</v>
       </c>
       <c r="T2">
-        <v>0.7785335641833225</v>
+        <v>0.8042649073585001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.7983691175227</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H3">
-        <v>15.7983691175227</v>
+        <v>54.960962</v>
       </c>
       <c r="I3">
-        <v>0.9364622253110366</v>
+        <v>0.9393883922888365</v>
       </c>
       <c r="J3">
-        <v>0.9364622253110366</v>
+        <v>0.9570930138987986</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N3">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P3">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q3">
-        <v>8.230164384565059</v>
+        <v>12.048652011564</v>
       </c>
       <c r="R3">
-        <v>8.230164384565059</v>
+        <v>108.437868104076</v>
       </c>
       <c r="S3">
-        <v>0.07547686839803396</v>
+        <v>0.09176442706661052</v>
       </c>
       <c r="T3">
-        <v>0.07547686839803396</v>
+        <v>0.09625699105162543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.7983691175227</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H4">
-        <v>15.7983691175227</v>
+        <v>54.960962</v>
       </c>
       <c r="I4">
-        <v>0.9364622253110366</v>
+        <v>0.9393883922888365</v>
       </c>
       <c r="J4">
-        <v>0.9364622253110366</v>
+        <v>0.9570930138987986</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N4">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O4">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P4">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q4">
-        <v>8.990725534460978</v>
+        <v>10.62165475435633</v>
       </c>
       <c r="R4">
-        <v>8.990725534460978</v>
+        <v>63.729928526138</v>
       </c>
       <c r="S4">
-        <v>0.08245179272968026</v>
+        <v>0.0808961917148379</v>
       </c>
       <c r="T4">
-        <v>0.08245179272968026</v>
+        <v>0.05657111548867318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.07189931458136</v>
+        <v>0.09978633333333332</v>
       </c>
       <c r="H5">
-        <v>1.07189931458136</v>
+        <v>0.299359</v>
       </c>
       <c r="I5">
-        <v>0.06353777468896343</v>
+        <v>0.005116620224500324</v>
       </c>
       <c r="J5">
-        <v>0.06353777468896343</v>
+        <v>0.005213052994737072</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N5">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O5">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P5">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q5">
-        <v>5.759883697355841</v>
+        <v>0.5483316227497776</v>
       </c>
       <c r="R5">
-        <v>5.759883697355841</v>
+        <v>4.934984604747999</v>
       </c>
       <c r="S5">
-        <v>0.05282251526210346</v>
+        <v>0.004176179804665686</v>
       </c>
       <c r="T5">
-        <v>0.05282251526210346</v>
+        <v>0.004380635448155605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -779,49 +782,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.07189931458136</v>
+        <v>0.09978633333333332</v>
       </c>
       <c r="H6">
-        <v>1.07189931458136</v>
+        <v>0.299359</v>
       </c>
       <c r="I6">
-        <v>0.06353777468896343</v>
+        <v>0.005116620224500324</v>
       </c>
       <c r="J6">
-        <v>0.06353777468896343</v>
+        <v>0.005213052994737072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N6">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O6">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P6">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q6">
-        <v>0.5584062188370078</v>
+        <v>0.065626078698</v>
       </c>
       <c r="R6">
-        <v>0.5584062188370078</v>
+        <v>0.5906347082819999</v>
       </c>
       <c r="S6">
-        <v>0.005121009827075518</v>
+        <v>0.0004998185279623282</v>
       </c>
       <c r="T6">
-        <v>0.005121009827075518</v>
+        <v>0.0005242884319278024</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H7">
+        <v>0.299359</v>
+      </c>
+      <c r="I7">
+        <v>0.005116620224500324</v>
+      </c>
+      <c r="J7">
+        <v>0.005213052994737072</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5797745</v>
+      </c>
+      <c r="N7">
+        <v>1.159549</v>
+      </c>
+      <c r="O7">
+        <v>0.08611580937010824</v>
+      </c>
+      <c r="P7">
+        <v>0.0591072285213179</v>
+      </c>
+      <c r="Q7">
+        <v>0.05785357151516666</v>
+      </c>
+      <c r="R7">
+        <v>0.347121429091</v>
+      </c>
+      <c r="S7">
+        <v>0.0004406218918723104</v>
+      </c>
+      <c r="T7">
+        <v>0.0003081291146536648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.07189931458136</v>
-      </c>
-      <c r="H7">
-        <v>1.07189931458136</v>
-      </c>
-      <c r="I7">
-        <v>0.06353777468896343</v>
-      </c>
-      <c r="J7">
-        <v>0.06353777468896343</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.5690920035846579</v>
-      </c>
-      <c r="N7">
-        <v>0.5690920035846579</v>
-      </c>
-      <c r="O7">
-        <v>0.08804604232946472</v>
-      </c>
-      <c r="P7">
-        <v>0.08804604232946472</v>
-      </c>
-      <c r="Q7">
-        <v>0.6100093285761278</v>
-      </c>
-      <c r="R7">
-        <v>0.6100093285761278</v>
-      </c>
-      <c r="S7">
-        <v>0.005594249599784467</v>
-      </c>
-      <c r="T7">
-        <v>0.005594249599784467</v>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.082285</v>
+      </c>
+      <c r="H8">
+        <v>2.16457</v>
+      </c>
+      <c r="I8">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J8">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.495057333333333</v>
+      </c>
+      <c r="N8">
+        <v>16.485172</v>
+      </c>
+      <c r="O8">
+        <v>0.8161989011161211</v>
+      </c>
+      <c r="P8">
+        <v>0.8403205285996808</v>
+      </c>
+      <c r="Q8">
+        <v>5.947218126006666</v>
+      </c>
+      <c r="R8">
+        <v>35.68330875603999</v>
+      </c>
+      <c r="S8">
+        <v>0.04529494780406737</v>
+      </c>
+      <c r="T8">
+        <v>0.03167498579302503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.082285</v>
+      </c>
+      <c r="H9">
+        <v>2.16457</v>
+      </c>
+      <c r="I9">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J9">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.657666</v>
+      </c>
+      <c r="N9">
+        <v>1.972998</v>
+      </c>
+      <c r="O9">
+        <v>0.09768528951377062</v>
+      </c>
+      <c r="P9">
+        <v>0.1005722428790014</v>
+      </c>
+      <c r="Q9">
+        <v>0.7117820468099999</v>
+      </c>
+      <c r="R9">
+        <v>4.27069228086</v>
+      </c>
+      <c r="S9">
+        <v>0.00542104391919777</v>
+      </c>
+      <c r="T9">
+        <v>0.003790963395448152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.082285</v>
+      </c>
+      <c r="H10">
+        <v>2.16457</v>
+      </c>
+      <c r="I10">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J10">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5797745</v>
+      </c>
+      <c r="N10">
+        <v>1.159549</v>
+      </c>
+      <c r="O10">
+        <v>0.08611580937010824</v>
+      </c>
+      <c r="P10">
+        <v>0.0591072285213179</v>
+      </c>
+      <c r="Q10">
+        <v>0.6274812447324999</v>
+      </c>
+      <c r="R10">
+        <v>2.50992497893</v>
+      </c>
+      <c r="S10">
+        <v>0.004778995763398027</v>
+      </c>
+      <c r="T10">
+        <v>0.002227983917991052</v>
       </c>
     </row>
   </sheetData>
